--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06056547325225744</v>
+        <v>0.05120990333195014</v>
       </c>
       <c r="H2" t="n">
-        <v>29.12567191668164</v>
+        <v>9.179584034372418</v>
       </c>
       <c r="I2" t="n">
-        <v>25.5555443181357</v>
+        <v>46.15546289090901</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09015513816387562</v>
+        <v>0.09793474319206244</v>
       </c>
       <c r="H3" t="n">
-        <v>24.51275124285286</v>
+        <v>35.25711973221765</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07367458053038409</v>
+        <v>0.0680703135860887</v>
       </c>
       <c r="H4" t="n">
-        <v>29.75736060953171</v>
+        <v>19.88699715977833</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01213365124384432</v>
+        <v>0.00329699464052463</v>
       </c>
       <c r="H5" t="n">
-        <v>-184.7670738137247</v>
+        <v>-76.96681877200065</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.003925252256867785</v>
+        <v>-0.005165567342555587</v>
       </c>
       <c r="H6" t="n">
-        <v>-83.68911093129296</v>
+        <v>78.53513853690704</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01650251254679723</v>
+        <v>0.01846184849370257</v>
       </c>
       <c r="H7" t="n">
-        <v>-50.20037059581058</v>
+        <v>155.7123171696127</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0189864150474884</v>
+        <v>0.02409311605374991</v>
       </c>
       <c r="H8" t="n">
-        <v>-39.38730108228032</v>
+        <v>-23.08454304285302</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03290006682311734</v>
+        <v>0.005223996711006387</v>
       </c>
       <c r="H9" t="n">
-        <v>101.3154465704246</v>
+        <v>-68.03437402079317</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1517989162915575</v>
+        <v>-0.1711429234231629</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.287429059661125</v>
+        <v>-7.909394870874231</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1540602964348206</v>
+        <v>-0.1602390652435351</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.158638432674129</v>
+        <v>1.354914435063037</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0621007465326287</v>
+        <v>-0.07449536163950758</v>
       </c>
       <c r="H12" t="n">
-        <v>2.526625671402065</v>
+        <v>-22.98979454387913</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1051880459982636</v>
+        <v>-0.08145569055493294</v>
       </c>
       <c r="H13" t="n">
-        <v>9.618328455793309</v>
+        <v>15.11358009263242</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07089317975100606</v>
+        <v>-0.06552736163933778</v>
       </c>
       <c r="H14" t="n">
-        <v>-19.50893379179525</v>
+        <v>25.60120419642957</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.09890709071649248</v>
+        <v>-0.08156491133286663</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3714389908523344</v>
+        <v>17.22749640763643</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3463097644693779</v>
+        <v>-0.2683809722965568</v>
       </c>
       <c r="H16" t="n">
-        <v>12.19072223442064</v>
+        <v>13.05513674423356</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3501923929507932</v>
+        <v>-0.3119789352028493</v>
       </c>
       <c r="H17" t="n">
-        <v>12.04477752504912</v>
+        <v>0.1816970015773444</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1850308931941053</v>
+        <v>-0.1680675052573276</v>
       </c>
       <c r="H18" t="n">
-        <v>29.76305027063195</v>
+        <v>-17.86654518652614</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1349442902358573</v>
+        <v>-0.1253137066458246</v>
       </c>
       <c r="H19" t="n">
-        <v>-12.9776713996931</v>
+        <v>19.18820322967827</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1120747707415965</v>
+        <v>0.1473622764227348</v>
       </c>
       <c r="H20" t="n">
-        <v>-20.96920944383562</v>
+        <v>3.914173785789316</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2368851737538698</v>
+        <v>0.2566277819253207</v>
       </c>
       <c r="H21" t="n">
-        <v>28.15717964523057</v>
+        <v>38.8381224074945</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1368867820204333</v>
+        <v>0.137149028053356</v>
       </c>
       <c r="H22" t="n">
-        <v>-25.60335630360298</v>
+        <v>-25.4608281180165</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2338287864387763</v>
+        <v>0.2040021024893901</v>
       </c>
       <c r="H23" t="n">
-        <v>39.93588792085526</v>
+        <v>22.08597488936066</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09718286921920027</v>
+        <v>0.07706236146561274</v>
       </c>
       <c r="H24" t="n">
-        <v>51.4656280821636</v>
+        <v>20.10654835222416</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03886877920887855</v>
+        <v>0.03491283538507325</v>
       </c>
       <c r="H25" t="n">
-        <v>18.19761774223566</v>
+        <v>6.167830714885693</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01914088883001867</v>
+        <v>0.02518630442810951</v>
       </c>
       <c r="H26" t="n">
-        <v>-64.56101584075287</v>
+        <v>-53.36804619762905</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06074720994192163</v>
+        <v>0.05952032177277833</v>
       </c>
       <c r="H27" t="n">
-        <v>-5.576264088740182</v>
+        <v>-7.483304174804936</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.04546231586931228</v>
+        <v>-0.05647276081052222</v>
       </c>
       <c r="H28" t="n">
-        <v>-23.31174650347944</v>
+        <v>4.738742101586363</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07477489391622839</v>
+        <v>-0.03983073370710181</v>
       </c>
       <c r="H29" t="n">
-        <v>41.58827066881638</v>
+        <v>24.57943556059363</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06341744863427975</v>
+        <v>0.04760952405574065</v>
       </c>
       <c r="H30" t="n">
-        <v>-17.63347563265172</v>
+        <v>-38.16479363795596</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04104494819445325</v>
+        <v>0.06914723119120703</v>
       </c>
       <c r="H31" t="n">
-        <v>-32.88298679332649</v>
+        <v>13.07008129425095</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08582046574229568</v>
+        <v>0.07537325262533506</v>
       </c>
       <c r="H32" t="n">
-        <v>16.84383052620313</v>
+        <v>2.620039168850147</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1154567884570693</v>
+        <v>0.1074058462242039</v>
       </c>
       <c r="H33" t="n">
-        <v>-8.512349544702483</v>
+        <v>-14.89189464273767</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04039883471850271</v>
+        <v>0.03856276500730511</v>
       </c>
       <c r="H34" t="n">
-        <v>47.59238588349098</v>
+        <v>40.88452138164798</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01234629779422143</v>
+        <v>0.02184156446473049</v>
       </c>
       <c r="H35" t="n">
-        <v>-54.32503097140044</v>
+        <v>-19.19741471571751</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02532975853791208</v>
+        <v>0.003927435871854247</v>
       </c>
       <c r="H36" t="n">
-        <v>-25.96918241362247</v>
+        <v>-88.52135569408377</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04692281583839215</v>
+        <v>0.06900486055476046</v>
       </c>
       <c r="H37" t="n">
-        <v>-32.39794693148566</v>
+        <v>-0.5841793196144542</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2429374756241574</v>
+        <v>-0.2608576547855007</v>
       </c>
       <c r="H38" t="n">
-        <v>1.103378394316478</v>
+        <v>-8.561225933023161</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2780537384007664</v>
+        <v>-0.2692175294706038</v>
       </c>
       <c r="H39" t="n">
-        <v>3.479109552082697</v>
+        <v>-0.1906695650198601</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1478468163459562</v>
+        <v>0.1370878538301135</v>
       </c>
       <c r="H40" t="n">
-        <v>18.32067465555579</v>
+        <v>9.710359364832501</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.140661873515862</v>
+        <v>0.1407254293040719</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.785708909235705</v>
+        <v>-4.742687874694771</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08936084939073552</v>
+        <v>0.1408606401063182</v>
       </c>
       <c r="H42" t="n">
-        <v>-25.10682869991747</v>
+        <v>18.05505566306182</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1432750694803396</v>
+        <v>0.1229684796843252</v>
       </c>
       <c r="H43" t="n">
-        <v>2.425050766828613</v>
+        <v>-12.09180480547559</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.07999084123655185</v>
+        <v>-0.08264166929876478</v>
       </c>
       <c r="H44" t="n">
-        <v>-13.80922300626825</v>
+        <v>10.95293437588293</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.08253240265401592</v>
+        <v>-0.1204152852638517</v>
       </c>
       <c r="H45" t="n">
-        <v>-39.17342115740566</v>
+        <v>11.25364575099079</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1071794893959087</v>
+        <v>0.1016699573548239</v>
       </c>
       <c r="H46" t="n">
-        <v>-10.42320109440029</v>
+        <v>-15.02787169406309</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1104142267817539</v>
+        <v>0.09634441595782639</v>
       </c>
       <c r="H47" t="n">
-        <v>2.406611037155005</v>
+        <v>-10.64280919073178</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02052068917856296</v>
+        <v>0.02349999704191125</v>
       </c>
       <c r="H48" t="n">
-        <v>121.3375015688065</v>
+        <v>153.4725119059198</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06806702381280885</v>
+        <v>0.03382950300212563</v>
       </c>
       <c r="H49" t="n">
-        <v>16.46554065243655</v>
+        <v>-42.11629748964633</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02136882630924427</v>
+        <v>0.03570609247521671</v>
       </c>
       <c r="H50" t="n">
-        <v>-38.06192468258801</v>
+        <v>3.494998415692772</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02762566062108579</v>
+        <v>0.04073038813972228</v>
       </c>
       <c r="H51" t="n">
-        <v>-29.71979745742719</v>
+        <v>3.618876933295893</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03118961841921299</v>
+        <v>-0.0195437300275523</v>
       </c>
       <c r="H52" t="n">
-        <v>406.4461235692346</v>
+        <v>-217.3442579355309</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0179506714737119</v>
+        <v>-0.002388247903013927</v>
       </c>
       <c r="H53" t="n">
-        <v>275.9568375712939</v>
+        <v>49.98080543848737</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07019089208877687</v>
+        <v>0.05990860250112656</v>
       </c>
       <c r="H54" t="n">
-        <v>58.95775753905473</v>
+        <v>35.67197719660196</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09808937243564121</v>
+        <v>0.09137337637243842</v>
       </c>
       <c r="H55" t="n">
-        <v>23.7428757035452</v>
+        <v>15.27043220188371</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1001788345875874</v>
+        <v>0.1031019030474561</v>
       </c>
       <c r="H56" t="n">
-        <v>0.106153380011085</v>
+        <v>3.027101111021577</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1127393668407353</v>
+        <v>0.1086896188118172</v>
       </c>
       <c r="H57" t="n">
-        <v>2.134487008809821</v>
+        <v>-1.534319629361208</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02937623293450711</v>
+        <v>0.02076397105685284</v>
       </c>
       <c r="H58" t="n">
-        <v>4740.249133172227</v>
+        <v>3321.228076901871</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01994232722246755</v>
+        <v>0.04792392415558569</v>
       </c>
       <c r="H59" t="n">
-        <v>218.1205921877497</v>
+        <v>664.4838519728851</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01120141448718736</v>
+        <v>0.003164784100522185</v>
       </c>
       <c r="H60" t="n">
-        <v>30.61794066704203</v>
+        <v>-63.09594807523254</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008785410133517446</v>
+        <v>0.01122744183938037</v>
       </c>
       <c r="H61" t="n">
-        <v>-161.9915213540484</v>
+        <v>179.2229605629831</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.03119653638385558</v>
+        <v>-0.02947842073753738</v>
       </c>
       <c r="H62" t="n">
-        <v>-35.28739341235061</v>
+        <v>38.85137053225334</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.04647149012781098</v>
+        <v>-0.0485884555311491</v>
       </c>
       <c r="H63" t="n">
-        <v>-42.34990692473249</v>
+        <v>39.72371068691212</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.05086909040245288</v>
+        <v>0.06407538461843175</v>
       </c>
       <c r="H64" t="n">
-        <v>-17.60987810195298</v>
+        <v>3.779696228306836</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07275236159762123</v>
+        <v>0.07934466657120395</v>
       </c>
       <c r="H65" t="n">
-        <v>9.189254707507127</v>
+        <v>19.08321348854586</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1890417356306183</v>
+        <v>0.1970569835279363</v>
       </c>
       <c r="H66" t="n">
-        <v>-11.30293474632684</v>
+        <v>-7.542236277275998</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2364941989954446</v>
+        <v>0.2183681497627445</v>
       </c>
       <c r="H67" t="n">
-        <v>6.692696376400016</v>
+        <v>-1.484743389576667</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0899519133515433</v>
+        <v>-0.09521345585102355</v>
       </c>
       <c r="H68" t="n">
-        <v>4.437016216156529</v>
+        <v>-10.54583345935069</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.05333086288215112</v>
+        <v>-0.06975926517611586</v>
       </c>
       <c r="H69" t="n">
-        <v>-30.58437175488216</v>
+        <v>9.201108768511759</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1062817819102272</v>
+        <v>-0.09349842281371329</v>
       </c>
       <c r="H70" t="n">
-        <v>-23.4511873176579</v>
+        <v>32.6583246401833</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1062817819102272</v>
+        <v>-0.1322634124967614</v>
       </c>
       <c r="H71" t="n">
-        <v>-27.43620548174769</v>
+        <v>9.697269708889824</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1324677786999758</v>
+        <v>0.1440870592826444</v>
       </c>
       <c r="H72" t="n">
-        <v>-19.91246104750938</v>
+        <v>-12.88766154232557</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1463132983684802</v>
+        <v>0.1442976021514089</v>
       </c>
       <c r="H73" t="n">
-        <v>1.563701900673346</v>
+        <v>0.1645018826588123</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.03075121402456325</v>
+        <v>-0.0345812601046039</v>
       </c>
       <c r="H74" t="n">
-        <v>16.29192040956979</v>
+        <v>-30.77601243758843</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04322646030249065</v>
+        <v>-0.04332385752063817</v>
       </c>
       <c r="H75" t="n">
-        <v>17.6728503187776</v>
+        <v>-17.9379890368761</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01377257546607085</v>
+        <v>-0.01598649317061181</v>
       </c>
       <c r="H76" t="n">
-        <v>-157.1200633481557</v>
+        <v>-166.3020148170381</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02050870984281404</v>
+        <v>0.01633265600755064</v>
       </c>
       <c r="H77" t="n">
-        <v>-314.9535520486246</v>
+        <v>271.1839725716067</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06144545524018741</v>
+        <v>0.06868130190653768</v>
       </c>
       <c r="H78" t="n">
-        <v>-18.94970869442372</v>
+        <v>-9.405187006730159</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07536718675355349</v>
+        <v>0.07631896665943178</v>
       </c>
       <c r="H79" t="n">
-        <v>-5.866168793801027</v>
+        <v>-4.677392976834839</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04809254605979335</v>
+        <v>0.05521084840261151</v>
       </c>
       <c r="H80" t="n">
-        <v>-26.2681940892166</v>
+        <v>-15.35495846841156</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05068783606682952</v>
+        <v>0.06262333422454848</v>
       </c>
       <c r="H81" t="n">
-        <v>36.3861540085954</v>
+        <v>68.50109156011642</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06586770161180359</v>
+        <v>0.060379758331346</v>
       </c>
       <c r="H82" t="n">
-        <v>13.50790688159433</v>
+        <v>4.050692805400985</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08390751982615216</v>
+        <v>0.08063092204260072</v>
       </c>
       <c r="H83" t="n">
-        <v>31.08385665059629</v>
+        <v>25.96501777834006</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.02031440808589113</v>
+        <v>-0.02538471586657188</v>
       </c>
       <c r="H84" t="n">
-        <v>143.7799127668173</v>
+        <v>-204.6253572045377</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.01015072884263509</v>
+        <v>-0.007772257282124079</v>
       </c>
       <c r="H85" t="n">
-        <v>162.1971541256831</v>
+        <v>-100.7603367303158</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.002033110937133596</v>
+        <v>0.02158590802449029</v>
       </c>
       <c r="H86" t="n">
-        <v>-108.0400936234777</v>
+        <v>-14.6368659501853</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02784701837841952</v>
+        <v>0.02040677582201528</v>
       </c>
       <c r="H87" t="n">
-        <v>-5.929764538071309</v>
+        <v>-31.06370741352154</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01778039604064384</v>
+        <v>-0.008760498957191583</v>
       </c>
       <c r="H88" t="n">
-        <v>-7.252075367859607</v>
+        <v>54.30258723347718</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02381969248138663</v>
+        <v>-0.01214858113905355</v>
       </c>
       <c r="H89" t="n">
-        <v>48.19131588287072</v>
+        <v>24.4190819628345</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.01507426368896961</v>
+        <v>-0.02492671382242986</v>
       </c>
       <c r="H90" t="n">
-        <v>-44.55814481061407</v>
+        <v>8.321674172273585</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01226304790532467</v>
+        <v>-0.03699363050902043</v>
       </c>
       <c r="H91" t="n">
-        <v>-573.8565383474742</v>
+        <v>-1529.471190950699</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.006210781171153123</v>
+        <v>-0.01967439281685024</v>
       </c>
       <c r="H92" t="n">
-        <v>-72.00033679125015</v>
+        <v>11.30320687080728</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02877100462166332</v>
+        <v>-0.01879095156248646</v>
       </c>
       <c r="H93" t="n">
-        <v>-40.04789022331769</v>
+        <v>60.84400924831594</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01678187253056559</v>
+        <v>0.006904886634006695</v>
       </c>
       <c r="H94" t="n">
-        <v>16.25510809555618</v>
+        <v>-52.16693842942952</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.008884441993552514</v>
+        <v>0.006270582000586372</v>
       </c>
       <c r="H95" t="n">
-        <v>-132.2237852210447</v>
+        <v>-77.25665970417937</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.128149388764748</v>
+        <v>-0.1144910761283084</v>
       </c>
       <c r="H96" t="n">
-        <v>9.098977165271521</v>
+        <v>2.528920187985062</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1423828175820595</v>
+        <v>-0.1023909173962996</v>
       </c>
       <c r="H97" t="n">
-        <v>-12.27733931038863</v>
+        <v>36.91651944394894</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08369797417516159</v>
+        <v>0.1048219384195038</v>
       </c>
       <c r="H98" t="n">
-        <v>-25.90945893544431</v>
+        <v>-7.210249597160222</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1275728480433352</v>
+        <v>0.1151312267804316</v>
       </c>
       <c r="H99" t="n">
-        <v>21.45597220476403</v>
+        <v>9.610903058262622</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.001737590526370218</v>
+        <v>0.02741736207466895</v>
       </c>
       <c r="H100" t="n">
-        <v>-93.29802765661987</v>
+        <v>5.750117512852984</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02157126603437439</v>
+        <v>0.02399070245324814</v>
       </c>
       <c r="H101" t="n">
-        <v>62.85978401274559</v>
+        <v>81.12616170158655</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01044753741781447</v>
+        <v>0.02170021903383064</v>
       </c>
       <c r="H102" t="n">
-        <v>-1325.70457626356</v>
+        <v>2445.868630279755</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02350618301517328</v>
+        <v>0.02338752094919046</v>
       </c>
       <c r="H103" t="n">
-        <v>26.39826198619949</v>
+        <v>25.76018821240822</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.04827563171047261</v>
+        <v>0.06673157467230985</v>
       </c>
       <c r="H104" t="n">
-        <v>3.021751937553927</v>
+        <v>42.40732826706201</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05920121128248719</v>
+        <v>0.06436154370981485</v>
       </c>
       <c r="H105" t="n">
-        <v>33.17395467312508</v>
+        <v>44.78219480686175</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3171272511632977</v>
+        <v>-0.2932739392386632</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.1539420611834802</v>
+        <v>7.664047722943019</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3321212363366083</v>
+        <v>-0.2978987414233428</v>
       </c>
       <c r="H107" t="n">
-        <v>8.586735307038856</v>
+        <v>2.602278192016425</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2343155477055783</v>
+        <v>0.2350158011051382</v>
       </c>
       <c r="H108" t="n">
-        <v>6.518541902010328</v>
+        <v>6.836873194207675</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2383080140891622</v>
+        <v>0.2376339271921233</v>
       </c>
       <c r="H109" t="n">
-        <v>-4.402672243003053</v>
+        <v>-4.673082393829169</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.003254987543694114</v>
+        <v>-0.004381299742847928</v>
       </c>
       <c r="H110" t="n">
-        <v>-185.1578016385455</v>
+        <v>-214.6246642766005</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02065315764705691</v>
+        <v>0.01227279801778509</v>
       </c>
       <c r="H111" t="n">
-        <v>-4.510377985888871</v>
+        <v>-43.25686832972823</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07118400065722133</v>
+        <v>0.05830632685605878</v>
       </c>
       <c r="H112" t="n">
-        <v>66.85264052414054</v>
+        <v>36.66785380669796</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.06783842818466373</v>
+        <v>0.0635570994679656</v>
       </c>
       <c r="H113" t="n">
-        <v>101.3343249097149</v>
+        <v>88.62798058601396</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05120990333195014</v>
+        <v>0.03637510348869527</v>
       </c>
       <c r="H2" t="n">
-        <v>9.179584034372418</v>
+        <v>-22.44822954732647</v>
       </c>
       <c r="I2" t="n">
-        <v>46.15546289090901</v>
+        <v>8.327903157199804</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09793474319206244</v>
+        <v>0.09712557240778807</v>
       </c>
       <c r="H3" t="n">
-        <v>35.25711973221765</v>
+        <v>34.13957854014271</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0680703135860887</v>
+        <v>0.07041270718011172</v>
       </c>
       <c r="H4" t="n">
-        <v>19.88699715977833</v>
+        <v>24.01247446933361</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00329699464052463</v>
+        <v>-0.008534656263172968</v>
       </c>
       <c r="H5" t="n">
-        <v>-76.96681877200065</v>
+        <v>-159.6240837070521</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.005165567342555587</v>
+        <v>-0.00788555591587959</v>
       </c>
       <c r="H6" t="n">
-        <v>78.53513853690704</v>
+        <v>67.23257019623163</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01846184849370257</v>
+        <v>0.01411910379480738</v>
       </c>
       <c r="H7" t="n">
-        <v>155.7123171696127</v>
+        <v>142.6072172044585</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02409311605374991</v>
+        <v>0.01326001314085197</v>
       </c>
       <c r="H8" t="n">
-        <v>-23.08454304285302</v>
+        <v>-57.6684075355349</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005223996711006387</v>
+        <v>0.01559156754457109</v>
       </c>
       <c r="H9" t="n">
-        <v>-68.03437402079317</v>
+        <v>-4.595227728754517</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1711429234231629</v>
+        <v>-0.1671017107952788</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.909394870874231</v>
+        <v>-5.361321012504653</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1602390652435351</v>
+        <v>-0.1698639383386734</v>
       </c>
       <c r="H11" t="n">
-        <v>1.354914435063037</v>
+        <v>-4.570272588329702</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07449536163950758</v>
+        <v>-0.1125319730890451</v>
       </c>
       <c r="H12" t="n">
-        <v>-22.98979454387913</v>
+        <v>-85.78719460164335</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08145569055493294</v>
+        <v>-0.07174315592250431</v>
       </c>
       <c r="H13" t="n">
-        <v>15.11358009263242</v>
+        <v>25.23518470437133</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06552736163933778</v>
+        <v>-0.07821429040218332</v>
       </c>
       <c r="H14" t="n">
-        <v>25.60120419642957</v>
+        <v>11.19665319990744</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08156491133286663</v>
+        <v>-0.07839200239219019</v>
       </c>
       <c r="H15" t="n">
-        <v>17.22749640763643</v>
+        <v>20.44738118895608</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2683809722965568</v>
+        <v>-0.3096358274618553</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05513674423356</v>
+        <v>-0.3098112634063554</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3119789352028493</v>
+        <v>-0.3873388190656021</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1816970015773444</v>
+        <v>-23.92985308255634</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1680675052573276</v>
+        <v>-0.1349604330116795</v>
       </c>
       <c r="H18" t="n">
-        <v>-17.86654518652614</v>
+        <v>5.351602907363858</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1253137066458246</v>
+        <v>-0.1202462668564289</v>
       </c>
       <c r="H19" t="n">
-        <v>19.18820322967827</v>
+        <v>22.45607332439893</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1473622764227348</v>
+        <v>0.131976340116706</v>
       </c>
       <c r="H20" t="n">
-        <v>3.914173785789316</v>
+        <v>-6.935392995978311</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2566277819253207</v>
+        <v>0.248354225849621</v>
       </c>
       <c r="H21" t="n">
-        <v>38.8381224074945</v>
+        <v>34.36204821722021</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.137149028053356</v>
+        <v>0.1616497714269205</v>
       </c>
       <c r="H22" t="n">
-        <v>-25.4608281180165</v>
+        <v>-12.14491077263066</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2040021024893901</v>
+        <v>0.2441029789369376</v>
       </c>
       <c r="H23" t="n">
-        <v>22.08597488936066</v>
+        <v>46.08452458701028</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07706236146561274</v>
+        <v>0.08383095942634931</v>
       </c>
       <c r="H24" t="n">
-        <v>20.10654835222416</v>
+        <v>30.65583496616648</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03491283538507325</v>
+        <v>0.03256192320814249</v>
       </c>
       <c r="H25" t="n">
-        <v>6.167830714885693</v>
+        <v>-0.9811516943934818</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02518630442810951</v>
+        <v>0.03925824542434762</v>
       </c>
       <c r="H26" t="n">
-        <v>-53.36804619762905</v>
+        <v>-27.31412056835324</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05952032177277833</v>
+        <v>0.06638380839230765</v>
       </c>
       <c r="H27" t="n">
-        <v>-7.483304174804936</v>
+        <v>3.185104277410491</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.05647276081052222</v>
+        <v>-0.07337045646207351</v>
       </c>
       <c r="H28" t="n">
-        <v>4.738742101586363</v>
+        <v>-23.76519006408535</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03983073370710181</v>
+        <v>-0.05191139580767722</v>
       </c>
       <c r="H29" t="n">
-        <v>24.57943556059363</v>
+        <v>1.704377292091585</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04760952405574065</v>
+        <v>0.0508360219578992</v>
       </c>
       <c r="H30" t="n">
-        <v>-38.16479363795596</v>
+        <v>-33.97422110937763</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06914723119120703</v>
+        <v>0.06330558760020538</v>
       </c>
       <c r="H31" t="n">
-        <v>13.07008129425095</v>
+        <v>3.517781016310266</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07537325262533506</v>
+        <v>0.063598048263091</v>
       </c>
       <c r="H32" t="n">
-        <v>2.620039168850147</v>
+        <v>-13.41180091746362</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1074058462242039</v>
+        <v>0.1252241841883524</v>
       </c>
       <c r="H33" t="n">
-        <v>-14.89189464273767</v>
+        <v>-0.7726912841190237</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03856276500730511</v>
+        <v>0.03901948325762424</v>
       </c>
       <c r="H34" t="n">
-        <v>40.88452138164798</v>
+        <v>42.55308773290122</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02184156446473049</v>
+        <v>0.03243630006210251</v>
       </c>
       <c r="H35" t="n">
-        <v>-19.19741471571751</v>
+        <v>19.99767261666967</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.003927435871854247</v>
+        <v>0.044641559952328</v>
       </c>
       <c r="H36" t="n">
-        <v>-88.52135569408377</v>
+        <v>30.47306300435613</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06900486055476046</v>
+        <v>0.05373387596897591</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.5841793196144542</v>
+        <v>-22.58520146483715</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2608576547855007</v>
+        <v>-0.2583511074157904</v>
       </c>
       <c r="H38" t="n">
-        <v>-8.561225933023161</v>
+        <v>-7.518075194208544</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2692175294706038</v>
+        <v>-0.2684922489543793</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.1906695650198601</v>
+        <v>0.07924725906618323</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1370878538301135</v>
+        <v>0.1295151216831317</v>
       </c>
       <c r="H40" t="n">
-        <v>9.710359364832501</v>
+        <v>3.649959832656795</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1407254293040719</v>
+        <v>0.1400313637444475</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.742687874694771</v>
+        <v>-5.212502178872223</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1408606401063182</v>
+        <v>0.114577292213867</v>
       </c>
       <c r="H42" t="n">
-        <v>18.05505566306182</v>
+        <v>-3.972972153033334</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1229684796843252</v>
+        <v>0.139615312579472</v>
       </c>
       <c r="H43" t="n">
-        <v>-12.09180480547559</v>
+        <v>-0.1912507832261542</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.08264166929876478</v>
+        <v>-0.08709104824537697</v>
       </c>
       <c r="H44" t="n">
-        <v>10.95293437588293</v>
+        <v>6.15869265245899</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1204152852638517</v>
+        <v>-0.1239102353312103</v>
       </c>
       <c r="H45" t="n">
-        <v>11.25364575099079</v>
+        <v>8.677859163093919</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1016699573548239</v>
+        <v>0.09845267170551046</v>
       </c>
       <c r="H46" t="n">
-        <v>-15.02787169406309</v>
+        <v>-17.71676442209117</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.09634441595782639</v>
+        <v>0.1137295508525624</v>
       </c>
       <c r="H47" t="n">
-        <v>-10.64280919073178</v>
+        <v>5.481496515930167</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02349999704191125</v>
+        <v>0.0138535408342352</v>
       </c>
       <c r="H48" t="n">
-        <v>153.4725119059198</v>
+        <v>49.42520153437594</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03382950300212563</v>
+        <v>0.05926882464325932</v>
       </c>
       <c r="H49" t="n">
-        <v>-42.11629748964633</v>
+        <v>1.41145181982655</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03570609247521671</v>
+        <v>0.03269176739166498</v>
       </c>
       <c r="H50" t="n">
-        <v>3.494998415692772</v>
+        <v>-5.242097920544605</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04073038813972228</v>
+        <v>0.0466318891256944</v>
       </c>
       <c r="H51" t="n">
-        <v>3.618876933295893</v>
+        <v>18.63240693672834</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0195437300275523</v>
+        <v>-0.02179255507948296</v>
       </c>
       <c r="H52" t="n">
-        <v>-217.3442579355309</v>
+        <v>-253.8598931968489</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.002388247903013927</v>
+        <v>-0.02267342488528068</v>
       </c>
       <c r="H53" t="n">
-        <v>49.98080543848737</v>
+        <v>-374.8696520497198</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05990860250112656</v>
+        <v>0.05051647244047907</v>
       </c>
       <c r="H54" t="n">
-        <v>35.67197719660196</v>
+        <v>14.40209604069076</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09137337637243842</v>
+        <v>0.09260520248326551</v>
       </c>
       <c r="H55" t="n">
-        <v>15.27043220188371</v>
+        <v>16.82442017770108</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1031019030474561</v>
+        <v>0.1058591034065713</v>
       </c>
       <c r="H56" t="n">
-        <v>3.027101111021577</v>
+        <v>5.782301081008119</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1086896188118172</v>
+        <v>0.09737948271279924</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.534319629361208</v>
+        <v>-11.78056263075118</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02076397105685284</v>
+        <v>0.02935945595749481</v>
       </c>
       <c r="H58" t="n">
-        <v>3321.228076901871</v>
+        <v>4737.484832227919</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04792392415558569</v>
+        <v>0.009116871845707898</v>
       </c>
       <c r="H59" t="n">
-        <v>664.4838519728851</v>
+        <v>45.43260864704418</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.003164784100522185</v>
+        <v>-0.002095740098605703</v>
       </c>
       <c r="H60" t="n">
-        <v>-63.09594807523254</v>
+        <v>-124.4380971855239</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01122744183938037</v>
+        <v>0.008439185765296536</v>
       </c>
       <c r="H61" t="n">
-        <v>179.2229605629831</v>
+        <v>159.5484964992412</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02947842073753738</v>
+        <v>-0.04263655158911812</v>
       </c>
       <c r="H62" t="n">
-        <v>38.85137053225334</v>
+        <v>11.55677171044915</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0485884555311491</v>
+        <v>-0.07033952536497487</v>
       </c>
       <c r="H63" t="n">
-        <v>39.72371068691212</v>
+        <v>12.74047436378271</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06407538461843175</v>
+        <v>0.06827171763273888</v>
       </c>
       <c r="H64" t="n">
-        <v>3.779696228306836</v>
+        <v>10.57628696421849</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07934466657120395</v>
+        <v>0.07126688353904044</v>
       </c>
       <c r="H65" t="n">
-        <v>19.08321348854586</v>
+        <v>6.959797978694978</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1970569835279363</v>
+        <v>0.2002907461777648</v>
       </c>
       <c r="H66" t="n">
-        <v>-7.542236277275998</v>
+        <v>-6.024977372463692</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2183681497627445</v>
+        <v>0.2207425457184885</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.484743389576667</v>
+        <v>-0.413551335565956</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09521345585102355</v>
+        <v>-0.09841176299547155</v>
       </c>
       <c r="H68" t="n">
-        <v>-10.54583345935069</v>
+        <v>-14.25916920356735</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.06975926517611586</v>
+        <v>-0.06589192405207914</v>
       </c>
       <c r="H69" t="n">
-        <v>9.201108768511759</v>
+        <v>14.23485281942671</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.09349842281371329</v>
+        <v>-0.146688132136685</v>
       </c>
       <c r="H70" t="n">
-        <v>32.6583246401833</v>
+        <v>-5.651242836127397</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1322634124967614</v>
+        <v>-0.1429544297286355</v>
       </c>
       <c r="H71" t="n">
-        <v>9.697269708889824</v>
+        <v>2.397986956366123</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1440870592826444</v>
+        <v>0.1609545990748085</v>
       </c>
       <c r="H72" t="n">
-        <v>-12.88766154232557</v>
+        <v>-2.689862776504838</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1442976021514089</v>
+        <v>0.143323196885733</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1645018826588123</v>
+        <v>-0.5118837025005065</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0345812601046039</v>
+        <v>-0.04870781896353893</v>
       </c>
       <c r="H74" t="n">
-        <v>-30.77601243758843</v>
+        <v>-84.19844503397788</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04332385752063817</v>
+        <v>-0.03428488959156111</v>
       </c>
       <c r="H75" t="n">
-        <v>-17.9379890368761</v>
+        <v>6.668261688058466</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01598649317061181</v>
+        <v>-0.01584785442355366</v>
       </c>
       <c r="H76" t="n">
-        <v>-166.3020148170381</v>
+        <v>-165.7270276598445</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01633265600755064</v>
+        <v>0.03989341839079794</v>
       </c>
       <c r="H77" t="n">
-        <v>271.1839725716067</v>
+        <v>518.1263498380705</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06868130190653768</v>
+        <v>0.08380631276475503</v>
       </c>
       <c r="H78" t="n">
-        <v>-9.405187006730159</v>
+        <v>10.54562190609485</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07631896665943178</v>
+        <v>0.08843078154447398</v>
       </c>
       <c r="H79" t="n">
-        <v>-4.677392976834839</v>
+        <v>10.45029835808865</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05521084840261151</v>
+        <v>0.04359490437457248</v>
       </c>
       <c r="H80" t="n">
-        <v>-15.35495846841156</v>
+        <v>-33.16363363152431</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.06262333422454848</v>
+        <v>0.04359490437457248</v>
       </c>
       <c r="H81" t="n">
-        <v>68.50109156011642</v>
+        <v>17.30114763986477</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.060379758331346</v>
+        <v>0.05838458864104606</v>
       </c>
       <c r="H82" t="n">
-        <v>4.050692805400985</v>
+        <v>0.6124745303160427</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08063092204260072</v>
+        <v>0.07612611132650525</v>
       </c>
       <c r="H83" t="n">
-        <v>25.96501777834006</v>
+        <v>18.92741300381923</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.02538471586657188</v>
+        <v>-0.008891897845455639</v>
       </c>
       <c r="H84" t="n">
-        <v>-204.6253572045377</v>
+        <v>-6.705845030361727</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.007772257282124079</v>
+        <v>-0.02628413881655461</v>
       </c>
       <c r="H85" t="n">
-        <v>-100.7603367303158</v>
+        <v>-578.9292181068624</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02158590802449029</v>
+        <v>0.01994448018870815</v>
       </c>
       <c r="H86" t="n">
-        <v>-14.6368659501853</v>
+        <v>-21.1280186142288</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02040677582201528</v>
+        <v>0.02194412821421481</v>
       </c>
       <c r="H87" t="n">
-        <v>-31.06370741352154</v>
+        <v>-25.87036500404319</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.008760498957191583</v>
+        <v>-0.01047531904076772</v>
       </c>
       <c r="H88" t="n">
-        <v>54.30258723347718</v>
+        <v>45.35756691415245</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01214858113905355</v>
+        <v>-0.01871863364928345</v>
       </c>
       <c r="H89" t="n">
-        <v>24.4190819628345</v>
+        <v>-16.45569959328105</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02492671382242986</v>
+        <v>-0.01924925547983939</v>
       </c>
       <c r="H90" t="n">
-        <v>8.321674172273585</v>
+        <v>29.20288135879771</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03699363050902043</v>
+        <v>-0.03837919993483428</v>
       </c>
       <c r="H91" t="n">
-        <v>-1529.471190950699</v>
+        <v>-1583.010990911129</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01967439281685024</v>
+        <v>-0.02033250735909281</v>
       </c>
       <c r="H92" t="n">
-        <v>11.30320687080728</v>
+        <v>8.336271629044235</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01879095156248646</v>
+        <v>-0.02625017060956936</v>
       </c>
       <c r="H93" t="n">
-        <v>60.84400924831594</v>
+        <v>45.30072443641493</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.006904886634006695</v>
+        <v>-0.002780623968867969</v>
       </c>
       <c r="H94" t="n">
-        <v>-52.16693842942952</v>
+        <v>-119.2625548480999</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.006270582000586372</v>
+        <v>0.02866507663219805</v>
       </c>
       <c r="H95" t="n">
-        <v>-77.25665970417937</v>
+        <v>3.967955827847009</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1144910761283084</v>
+        <v>-0.1279842141866715</v>
       </c>
       <c r="H96" t="n">
-        <v>2.528920187985062</v>
+        <v>-8.958357083540722</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1023909173962996</v>
+        <v>-0.1813427573849516</v>
       </c>
       <c r="H97" t="n">
-        <v>36.91651944394894</v>
+        <v>-11.72604563349396</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1048219384195038</v>
+        <v>0.08826580465799094</v>
       </c>
       <c r="H98" t="n">
-        <v>-7.210249597160222</v>
+        <v>-21.86595566909606</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1151312267804316</v>
+        <v>0.1241844572123983</v>
       </c>
       <c r="H99" t="n">
-        <v>9.610903058262622</v>
+        <v>18.23004828056541</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02741736207466895</v>
+        <v>0.001253778007800727</v>
       </c>
       <c r="H100" t="n">
-        <v>5.750117512852984</v>
+        <v>-95.16411639825644</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02399070245324814</v>
+        <v>0.04365770428952109</v>
       </c>
       <c r="H101" t="n">
-        <v>81.12616170158655</v>
+        <v>229.609040088496</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02170021903383064</v>
+        <v>-0.01583864214179639</v>
       </c>
       <c r="H102" t="n">
-        <v>2445.868630279755</v>
+        <v>-1958.188717457767</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02338752094919046</v>
+        <v>0.02506070462637843</v>
       </c>
       <c r="H103" t="n">
-        <v>25.76018821240822</v>
+        <v>34.75728947056324</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06673157467230985</v>
+        <v>0.05664934499999533</v>
       </c>
       <c r="H104" t="n">
-        <v>42.40732826706201</v>
+        <v>20.89152562551304</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06436154370981485</v>
+        <v>0.05524800373524408</v>
       </c>
       <c r="H105" t="n">
-        <v>44.78219480686175</v>
+        <v>24.28115887883112</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2932739392386632</v>
+        <v>-0.3283881565392364</v>
       </c>
       <c r="H106" t="n">
-        <v>7.664047722943019</v>
+        <v>-3.391502256468503</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2978987414233428</v>
+        <v>-0.3108617972068624</v>
       </c>
       <c r="H107" t="n">
-        <v>2.602278192016425</v>
+        <v>-1.635981073370589</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2350158011051382</v>
+        <v>0.2546760906982165</v>
       </c>
       <c r="H108" t="n">
-        <v>6.836873194207675</v>
+        <v>15.7743312559209</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2376339271921233</v>
+        <v>0.2392612355987495</v>
       </c>
       <c r="H109" t="n">
-        <v>-4.673082393829169</v>
+        <v>-4.020287162814586</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.004381299742847928</v>
+        <v>0.008774164452083585</v>
       </c>
       <c r="H110" t="n">
-        <v>-214.6246642766005</v>
+        <v>129.5518941084857</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01227279801778509</v>
+        <v>0.03099823153667391</v>
       </c>
       <c r="H111" t="n">
-        <v>-43.25686832972823</v>
+        <v>43.31994473323039</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.05830632685605878</v>
+        <v>0.05607804926475654</v>
       </c>
       <c r="H112" t="n">
-        <v>36.66785380669796</v>
+        <v>31.44485430544933</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0635570994679656</v>
+        <v>0.05166467046974389</v>
       </c>
       <c r="H113" t="n">
-        <v>88.62798058601396</v>
+        <v>53.33302715083137</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>